--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3189.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3189.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.229428406656554</v>
+        <v>1.007622599601746</v>
       </c>
       <c r="B1">
-        <v>2.395323539580877</v>
+        <v>1.944369316101074</v>
       </c>
       <c r="C1">
-        <v>7.750159062939439</v>
+        <v>3.013760805130005</v>
       </c>
       <c r="D1">
-        <v>2.839510602473386</v>
+        <v>3.679563522338867</v>
       </c>
       <c r="E1">
-        <v>1.373056194796158</v>
+        <v>1.691420197486877</v>
       </c>
     </row>
   </sheetData>
